--- a/Classwork 13 Nov 2024/Mode_choice_enumeration.xlsx
+++ b/Classwork 13 Nov 2024/Mode_choice_enumeration.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Git\CE-6511-Assignments-\Classwork 13 Nov 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172A15E1-C9F6-44CA-86DB-641C3C4AD363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F358D84E-D676-4B6B-9B52-6D709C4A2B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="total_enumeration" sheetId="3" state="hidden" r:id="rId2"/>
-    <sheet name="Naive_aggregation" sheetId="4" state="hidden" r:id="rId3"/>
-    <sheet name="aggregation_with_classification" sheetId="5" state="hidden" r:id="rId4"/>
+    <sheet name="total_enumeration" sheetId="3" r:id="rId2"/>
+    <sheet name="Naive_aggregation" sheetId="4" r:id="rId3"/>
+    <sheet name="aggregation_with_classification" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -623,8 +623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScale="140" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -1222,11 +1222,11 @@
         <v>1.4</v>
       </c>
       <c r="J13">
-        <f t="shared" ref="J12:J13" si="5" xml:space="preserve"> $P$1 + $P$2 * B13 +$P$4 * D13+$P$5 * (F13 / H13)+$P$6 * I13</f>
+        <f t="shared" ref="J13" si="5" xml:space="preserve"> $P$1 + $P$2 * B13 +$P$4 * D13+$P$5 * (F13 / H13)+$P$6 * I13</f>
         <v>-3.4466666666666668</v>
       </c>
       <c r="K13">
-        <f t="shared" ref="K12:K13" si="6" xml:space="preserve"> $P$3 *C13 + $P$4 *E13 + $P$5 * (G13/H13)</f>
+        <f t="shared" ref="K13" si="6" xml:space="preserve"> $P$3 *C13 + $P$4 *E13 + $P$5 * (G13/H13)</f>
         <v>-5.1150000000000002</v>
       </c>
       <c r="L13">
@@ -1863,7 +1863,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:T6"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -2316,8 +2316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392738AA-6BC1-4A61-A698-EDDA9C3FA34D}">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:T6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -2796,9 +2796,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2946,19 +2949,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E2D426-FC0B-415F-83BD-1F0F8D08AB46}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E3C2433-3742-4B1C-B775-6A701A5F6EEC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2982,9 +2981,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E3C2433-3742-4B1C-B775-6A701A5F6EEC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0E2D426-FC0B-415F-83BD-1F0F8D08AB46}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>